--- a/tmp_client/doc/TMP_EIT_suites/impl_01_mapar_engine_all.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/impl_01_mapar_engine_all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\new_eit2\eit2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\tmp_client\doc\TMP_EIT_suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="DD9F" lockStructure="1"/>
@@ -26,15 +26,15 @@
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="2"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="311">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1153,10 +1153,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>cmd =  python DEV/bin/run_diamondng.py --devkit=iCE40UP5K-CM225I --synthesis=lse --run-map-trce --run-par-trce --run-export-bitstream</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>cmd = --devkit=iCE40UP5K-SG48I</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1167,12 +1163,41 @@
   <si>
     <t>T+_impl_01_mapar_engine_all</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd =  python DEV/bin/run_diamondng.py --synthesis=lse --run-map-trce --run-par-trce --run-export-bitstream</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold correction</t>
+  </si>
+  <si>
+    <t>hold_correction/hold_correction1</t>
+  </si>
+  <si>
+    <t>hold_correction/hold_correction2</t>
+  </si>
+  <si>
+    <t>hold_correction/hold_correction3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2369,9 +2394,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2384,9 +2437,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2400,31 +2450,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4832,8 +4857,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{955C3B32-0EEB-47E6-9474-75D916305B4D}" diskRevisions="1" revisionId="3702" version="62">
-  <header guid="{A0BB65BC-EA7F-46CA-B94D-EC2E512D24AA}" dateTime="2018-10-12T15:14:31" maxSheetId="5" userName="Jason Wang" r:id="rId60" minRId="3700">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BA158F92-8782-44A3-9ED5-D5A7FF077766}" diskRevisions="1" revisionId="3745" version="67">
+  <header guid="{DE58A685-2028-45AF-8918-16C9B0A22454}" dateTime="2019-10-23T14:39:55" maxSheetId="5" userName="Jason Wang" r:id="rId63" minRId="3703" maxRId="3725">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4841,7 +4866,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{EB992451-B9CA-4EAE-8946-86D8F624BB5B}" dateTime="2018-10-12T15:14:35" maxSheetId="5" userName="Jason Wang" r:id="rId61" minRId="3701">
+  <header guid="{58614BC5-0A53-4F7A-89DE-E7F2568228A8}" dateTime="2019-10-23T14:40:03" maxSheetId="5" userName="Jason Wang" r:id="rId64" minRId="3727">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4849,7 +4874,23 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{955C3B32-0EEB-47E6-9474-75D916305B4D}" dateTime="2018-10-12T15:27:47" maxSheetId="5" userName="Jason Wang" r:id="rId62" minRId="3702">
+  <header guid="{88636B79-5B81-40A0-9E62-7CCE9B716C23}" dateTime="2019-10-23T14:40:19" maxSheetId="5" userName="Jason Wang" r:id="rId65" minRId="3728" maxRId="3733">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{70F80CCD-D630-4DB4-8740-2A9131565112}" dateTime="2019-10-23T14:40:41" maxSheetId="5" userName="Jason Wang" r:id="rId66" minRId="3735" maxRId="3737">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BA158F92-8782-44A3-9ED5-D5A7FF077766}" dateTime="2019-10-23T14:41:11" maxSheetId="5" userName="Jason Wang" r:id="rId67" minRId="3738" maxRId="3744">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -4862,61 +4903,374 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="3700" sId="1">
-    <oc r="B3" t="inlineStr">
+  <rcc rId="3703" sId="1">
+    <oc r="B7" t="inlineStr">
       <is>
-        <t>impl_01_mapar_engine</t>
+        <t>cmd =  python DEV/bin/run_diamondng.py --devkit=iCE40UP5K-CM225I --synthesis=lse --run-map-trce --run-par-trce --run-export-bitstream</t>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B3" t="inlineStr">
+    <nc r="B7" t="inlineStr">
       <is>
-        <t>T+_impl_01_mapar_engine</t>
-        <phoneticPr fontId="50049" type="noConversion"/>
+        <t>cmd =  python DEV/bin/run_diamondng.py --devkit=iCE40UP5K-CM225I --synthesis=lse --run-map-trce --run-par-trce --run-export-bitstream</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3704" sId="2">
+    <nc r="M24" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3705" sId="2">
+    <nc r="M3" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3706" sId="2">
+    <nc r="M4" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3707" sId="2">
+    <nc r="M5" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3708" sId="2">
+    <nc r="M6" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3709" sId="2">
+    <nc r="M7" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3710" sId="2">
+    <nc r="M8" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3711" sId="2">
+    <nc r="M9" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3712" sId="2">
+    <nc r="M10" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3713" sId="2">
+    <nc r="M11" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3714" sId="2">
+    <nc r="M12" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3715" sId="2">
+    <nc r="M13" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3716" sId="2">
+    <nc r="M14" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3717" sId="2">
+    <nc r="M15" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3718" sId="2">
+    <nc r="M16" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3719" sId="2">
+    <nc r="M17" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3720" sId="2">
+    <nc r="M18" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3721" sId="2">
+    <nc r="M19" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3722" sId="2">
+    <nc r="M20" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3723" sId="2">
+    <nc r="M21" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3724" sId="2">
+    <nc r="M22" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3725" sId="2">
+    <nc r="M23" t="inlineStr">
+      <is>
+        <t>cmd = --devkit=iCE40UP5K-CM225I</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3727" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>cmd =  python DEV/bin/run_diamondng.py --devkit=iCE40UP5K-CM225I --synthesis=lse --run-map-trce --run-par-trce --run-export-bitstream</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>cmd =  python DEV/bin/run_diamondng.py --synthesis=lse --run-map-trce --run-par-trce --run-export-bitstream</t>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="3701" sId="1">
-    <oc r="B8" t="inlineStr">
+  <rcc rId="3728" sId="2">
+    <nc r="D26" t="inlineStr">
       <is>
-        <t>radiant=ng1_0</t>
+        <t>hold correction</t>
       </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
+    </nc>
+  </rcc>
+  <rcc rId="3729" sId="2">
+    <nc r="E26" t="inlineStr">
       <is>
-        <t>radiant=ng1_1</t>
-        <phoneticPr fontId="50049" type="noConversion"/>
+        <t>hold_correction/hold_correction1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3730" sId="2">
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>hold correction</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3731" sId="2">
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>hold_correction/hold_correction2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3732" sId="2">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>hold correction</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3733" sId="2">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>hold_correction/hold_correction3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3735" sId="2">
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>24</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3736" sId="2">
+    <nc r="A27" t="inlineStr">
+      <is>
+        <t>25</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3737" sId="2">
+    <nc r="A28" t="inlineStr">
+      <is>
+        <t>26</t>
       </is>
     </nc>
   </rcc>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="3702" sId="1">
-    <oc r="B3" t="inlineStr">
+  <rcc rId="3738" sId="2">
+    <nc r="Q19" t="inlineStr">
       <is>
-        <t>T+_impl_01_mapar_engine</t>
-        <phoneticPr fontId="50049" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B3" t="inlineStr">
-      <is>
-        <t>T+_impl_01_mapar_engine_all</t>
-        <phoneticPr fontId="50049" type="noConversion"/>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
+  <rcc rId="3739" sId="2">
+    <nc r="Q20" t="inlineStr">
+      <is>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3740" sId="2">
+    <nc r="Q21" t="inlineStr">
+      <is>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3741" sId="2">
+    <nc r="Q22" t="inlineStr">
+      <is>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3742" sId="2">
+    <nc r="Q23" t="inlineStr">
+      <is>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3743" sId="2">
+    <nc r="Q24" t="inlineStr">
+      <is>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3744" sId="2">
+    <nc r="Q25" t="inlineStr">
+      <is>
+        <t>mpar</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{BA158F92-8782-44A3-9ED5-D5A7FF077766}" name="Jason Wang" id="-981743019" dateTime="2019-10-23T15:08:35"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5209,7 +5563,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5238,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5272,7 +5626,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5294,17 +5648,17 @@
   <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5317,14 +5671,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5484,6 +5838,9 @@
       <c r="E3" s="18" t="s">
         <v>263</v>
       </c>
+      <c r="M3" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q3" s="18" t="s">
         <v>281</v>
       </c>
@@ -5498,6 +5855,9 @@
       <c r="E4" s="18" t="s">
         <v>264</v>
       </c>
+      <c r="M4" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q4" s="18" t="s">
         <v>282</v>
       </c>
@@ -5512,6 +5872,9 @@
       <c r="E5" s="18" t="s">
         <v>265</v>
       </c>
+      <c r="M5" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q5" s="18" t="s">
         <v>282</v>
       </c>
@@ -5526,6 +5889,9 @@
       <c r="E6" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="M6" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q6" s="18" t="s">
         <v>282</v>
       </c>
@@ -5540,6 +5906,9 @@
       <c r="E7" s="18" t="s">
         <v>268</v>
       </c>
+      <c r="M7" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q7" s="18" t="s">
         <v>282</v>
       </c>
@@ -5554,6 +5923,9 @@
       <c r="E8" s="18" t="s">
         <v>269</v>
       </c>
+      <c r="M8" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q8" s="18" t="s">
         <v>282</v>
       </c>
@@ -5568,6 +5940,9 @@
       <c r="E9" s="18" t="s">
         <v>270</v>
       </c>
+      <c r="M9" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q9" s="18" t="s">
         <v>282</v>
       </c>
@@ -5582,6 +5957,9 @@
       <c r="E10" s="18" t="s">
         <v>271</v>
       </c>
+      <c r="M10" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q10" s="18" t="s">
         <v>282</v>
       </c>
@@ -5596,6 +5974,9 @@
       <c r="E11" s="18" t="s">
         <v>272</v>
       </c>
+      <c r="M11" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q11" s="18" t="s">
         <v>282</v>
       </c>
@@ -5610,6 +5991,9 @@
       <c r="E12" s="18" t="s">
         <v>273</v>
       </c>
+      <c r="M12" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q12" s="18" t="s">
         <v>282</v>
       </c>
@@ -5624,6 +6008,9 @@
       <c r="E13" s="18" t="s">
         <v>274</v>
       </c>
+      <c r="M13" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q13" s="18" t="s">
         <v>282</v>
       </c>
@@ -5638,6 +6025,9 @@
       <c r="E14" s="18" t="s">
         <v>275</v>
       </c>
+      <c r="M14" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q14" s="18" t="s">
         <v>282</v>
       </c>
@@ -5652,6 +6042,9 @@
       <c r="E15" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="M15" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q15" s="18" t="s">
         <v>282</v>
       </c>
@@ -5666,6 +6059,9 @@
       <c r="E16" s="18" t="s">
         <v>277</v>
       </c>
+      <c r="M16" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q16" s="18" t="s">
         <v>282</v>
       </c>
@@ -5680,6 +6076,9 @@
       <c r="E17" s="18" t="s">
         <v>279</v>
       </c>
+      <c r="M17" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q17" s="18" t="s">
         <v>282</v>
       </c>
@@ -5694,6 +6093,9 @@
       <c r="E18" s="18" t="s">
         <v>280</v>
       </c>
+      <c r="M18" s="18" t="s">
+        <v>302</v>
+      </c>
       <c r="Q18" s="18" t="s">
         <v>282</v>
       </c>
@@ -5708,6 +6110,12 @@
       <c r="E19" s="18" t="s">
         <v>285</v>
       </c>
+      <c r="M19" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -5719,6 +6127,12 @@
       <c r="E20" s="18" t="s">
         <v>286</v>
       </c>
+      <c r="M20" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -5730,6 +6144,12 @@
       <c r="E21" s="18" t="s">
         <v>287</v>
       </c>
+      <c r="M21" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -5741,6 +6161,12 @@
       <c r="E22" s="18" t="s">
         <v>288</v>
       </c>
+      <c r="M22" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -5752,6 +6178,12 @@
       <c r="E23" s="18" t="s">
         <v>289</v>
       </c>
+      <c r="M23" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -5763,6 +6195,12 @@
       <c r="E24" s="18" t="s">
         <v>290</v>
       </c>
+      <c r="M24" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -5775,7 +6213,43 @@
         <v>291</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5783,22 +6257,22 @@
   <autoFilter ref="A2:AB2"/>
   <customSheetViews>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A2:AB2"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
@@ -5925,17 +6399,17 @@
       <c r="E109" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F109" s="68" t="s">
+      <c r="F109" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="70"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
@@ -6715,7 +7189,7 @@
       <c r="A142" s="41">
         <v>1</v>
       </c>
-      <c r="B142" s="71" t="s">
+      <c r="B142" s="56" t="s">
         <v>125</v>
       </c>
       <c r="C142" s="39" t="s">
@@ -6741,7 +7215,7 @@
       <c r="A143" s="41">
         <v>2</v>
       </c>
-      <c r="B143" s="72"/>
+      <c r="B143" s="57"/>
       <c r="C143" s="39" t="s">
         <v>131</v>
       </c>
@@ -6763,7 +7237,7 @@
       <c r="A144" s="41">
         <v>3</v>
       </c>
-      <c r="B144" s="72"/>
+      <c r="B144" s="57"/>
       <c r="C144" s="39" t="s">
         <v>9</v>
       </c>
@@ -6781,7 +7255,7 @@
       <c r="A145" s="41">
         <v>4</v>
       </c>
-      <c r="B145" s="72"/>
+      <c r="B145" s="57"/>
       <c r="C145" s="39" t="s">
         <v>39</v>
       </c>
@@ -6801,7 +7275,7 @@
       <c r="A146" s="41">
         <v>5</v>
       </c>
-      <c r="B146" s="72"/>
+      <c r="B146" s="57"/>
       <c r="C146" s="39" t="s">
         <v>133</v>
       </c>
@@ -6823,7 +7297,7 @@
       <c r="A147" s="41">
         <v>6</v>
       </c>
-      <c r="B147" s="72"/>
+      <c r="B147" s="57"/>
       <c r="C147" s="39" t="s">
         <v>42</v>
       </c>
@@ -6845,7 +7319,7 @@
       <c r="A148" s="41">
         <v>7</v>
       </c>
-      <c r="B148" s="72"/>
+      <c r="B148" s="57"/>
       <c r="C148" s="39" t="s">
         <v>57</v>
       </c>
@@ -6939,7 +7413,7 @@
       <c r="A152" s="41">
         <v>11</v>
       </c>
-      <c r="B152" s="71" t="s">
+      <c r="B152" s="56" t="s">
         <v>147</v>
       </c>
       <c r="C152" s="39" t="s">
@@ -7273,7 +7747,7 @@
       <c r="A168" s="42">
         <v>27</v>
       </c>
-      <c r="B168" s="53"/>
+      <c r="B168" s="59"/>
       <c r="C168" s="40"/>
       <c r="D168" s="40"/>
       <c r="E168" s="40"/>
@@ -7304,11 +7778,11 @@
       <c r="B181" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="64" t="s">
+      <c r="C181" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
       <c r="F181" s="34" t="s">
         <v>44</v>
       </c>
@@ -7323,11 +7797,11 @@
       <c r="B182" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="C182" s="65" t="s">
+      <c r="C182" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="D182" s="65"/>
-      <c r="E182" s="65"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="61"/>
       <c r="F182" s="39" t="s">
         <v>188</v>
       </c>
@@ -7338,11 +7812,11 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
       <c r="B183" s="52"/>
-      <c r="C183" s="66" t="s">
+      <c r="C183" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D183" s="66"/>
-      <c r="E183" s="66"/>
+      <c r="D183" s="62"/>
+      <c r="E183" s="62"/>
       <c r="F183" s="39" t="s">
         <v>190</v>
       </c>
@@ -7355,11 +7829,11 @@
       <c r="B184" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C184" s="67" t="s">
+      <c r="C184" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D184" s="67"/>
-      <c r="E184" s="67"/>
+      <c r="D184" s="63"/>
+      <c r="E184" s="63"/>
       <c r="F184" s="39" t="s">
         <v>188</v>
       </c>
@@ -7370,11 +7844,11 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="52"/>
-      <c r="C185" s="67" t="s">
+      <c r="C185" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D185" s="67"/>
-      <c r="E185" s="67"/>
+      <c r="D185" s="63"/>
+      <c r="E185" s="63"/>
       <c r="F185" s="39" t="s">
         <v>190</v>
       </c>
@@ -7383,7 +7857,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="54" t="s">
+      <c r="A186" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B186" s="52" t="s">
@@ -7402,7 +7876,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
+      <c r="A187" s="64"/>
       <c r="B187" s="52"/>
       <c r="C187" s="52" t="s">
         <v>47</v>
@@ -7417,7 +7891,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="54"/>
+      <c r="A188" s="64"/>
       <c r="B188" s="52" t="s">
         <v>195</v>
       </c>
@@ -7434,7 +7908,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="54"/>
+      <c r="A189" s="64"/>
       <c r="B189" s="52"/>
       <c r="C189" s="52" t="s">
         <v>49</v>
@@ -7449,7 +7923,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="54" t="s">
+      <c r="A190" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B190" s="52" t="s">
@@ -7468,7 +7942,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="54"/>
+      <c r="A191" s="64"/>
       <c r="B191" s="52"/>
       <c r="C191" s="52" t="s">
         <v>51</v>
@@ -7483,7 +7957,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
+      <c r="A192" s="64"/>
       <c r="B192" s="52" t="s">
         <v>198</v>
       </c>
@@ -7500,13 +7974,13 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="55"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="53" t="s">
+      <c r="A193" s="65"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
+      <c r="D193" s="59"/>
+      <c r="E193" s="59"/>
       <c r="F193" s="40" t="s">
         <v>190</v>
       </c>
@@ -7545,12 +8019,12 @@
       <c r="A198" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="56" t="s">
+      <c r="B198" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="C198" s="56"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="66"/>
       <c r="F198" s="22" t="s">
         <v>204</v>
       </c>
@@ -7562,7 +8036,7 @@
       <c r="A199" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B199" s="57" t="s">
+      <c r="B199" s="67" t="s">
         <v>207</v>
       </c>
       <c r="C199" s="58"/>
@@ -7579,12 +8053,12 @@
       <c r="A200" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="59" t="s">
+      <c r="B200" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="61"/>
+      <c r="C200" s="69"/>
+      <c r="D200" s="69"/>
+      <c r="E200" s="70"/>
       <c r="F200" s="10" t="s">
         <v>189</v>
       </c>
@@ -7596,12 +8070,12 @@
       <c r="A201" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="B201" s="59" t="s">
+      <c r="B201" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="61"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="69"/>
+      <c r="E201" s="70"/>
       <c r="F201" s="46" t="s">
         <v>238</v>
       </c>
@@ -7613,12 +8087,12 @@
       <c r="A202" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B202" s="62" t="s">
+      <c r="B202" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C202" s="53"/>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
+      <c r="C202" s="59"/>
+      <c r="D202" s="59"/>
+      <c r="E202" s="59"/>
       <c r="F202" s="13" t="s">
         <v>189</v>
       </c>
@@ -7663,11 +8137,11 @@
       <c r="C207" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D207" s="63" t="s">
+      <c r="D207" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="E207" s="63"/>
-      <c r="F207" s="63"/>
+      <c r="E207" s="72"/>
+      <c r="F207" s="72"/>
       <c r="G207" s="32"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -7759,9 +8233,9 @@
       <c r="A213" s="42"/>
       <c r="B213" s="40"/>
       <c r="C213" s="40"/>
-      <c r="D213" s="53"/>
-      <c r="E213" s="53"/>
-      <c r="F213" s="53"/>
+      <c r="D213" s="59"/>
+      <c r="E213" s="59"/>
+      <c r="F213" s="59"/>
       <c r="G213" s="25"/>
     </row>
   </sheetData>
@@ -7773,28 +8247,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="41">
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="F109:N109"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B161"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
     <mergeCell ref="D208:F208"/>
     <mergeCell ref="A190:A193"/>
     <mergeCell ref="B190:B191"/>
@@ -7809,11 +8266,28 @@
     <mergeCell ref="B202:E202"/>
     <mergeCell ref="D207:F207"/>
     <mergeCell ref="B201:E201"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="F109:N109"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B161"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7840,11 +8314,11 @@
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
